--- a/data/pca/factorExposure/factorExposure_2011-06-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02205549319573338</v>
+        <v>-0.01837163175287874</v>
       </c>
       <c r="C2">
-        <v>-0.01504462299224898</v>
+        <v>-0.0008866223694083979</v>
       </c>
       <c r="D2">
-        <v>0.05695817998656797</v>
+        <v>0.006951999171515543</v>
       </c>
       <c r="E2">
-        <v>-0.03498061243564254</v>
+        <v>0.04040151950593231</v>
       </c>
       <c r="F2">
-        <v>-0.04099321200855624</v>
+        <v>0.0004911222982922299</v>
       </c>
       <c r="G2">
-        <v>-0.02437494149315969</v>
+        <v>0.0279305935660349</v>
       </c>
       <c r="H2">
-        <v>-0.02529548282870557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.009822516700658665</v>
+      </c>
+      <c r="I2">
+        <v>-0.03788492064579802</v>
+      </c>
+      <c r="J2">
+        <v>0.03053717519498643</v>
+      </c>
+      <c r="K2">
+        <v>-0.04396656398446092</v>
+      </c>
+      <c r="L2">
+        <v>-0.04820477125152396</v>
+      </c>
+      <c r="M2">
+        <v>-0.008902825195270548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07127019995148876</v>
+        <v>-0.1060376022109363</v>
       </c>
       <c r="C4">
-        <v>0.05167350083710073</v>
+        <v>0.0793493294403488</v>
       </c>
       <c r="D4">
-        <v>0.0348349540836565</v>
+        <v>0.01880152532586275</v>
       </c>
       <c r="E4">
-        <v>-0.04617880774075271</v>
+        <v>0.04979441397815691</v>
       </c>
       <c r="F4">
-        <v>0.01198693652222774</v>
+        <v>-0.1203742947375811</v>
       </c>
       <c r="G4">
-        <v>-0.01821512721672992</v>
+        <v>-0.01380774063001806</v>
       </c>
       <c r="H4">
-        <v>0.006581661806811708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.05870066740544864</v>
+      </c>
+      <c r="I4">
+        <v>-0.004447642513525235</v>
+      </c>
+      <c r="J4">
+        <v>-0.08201992606076369</v>
+      </c>
+      <c r="K4">
+        <v>0.003074560344653236</v>
+      </c>
+      <c r="L4">
+        <v>0.07200652161780151</v>
+      </c>
+      <c r="M4">
+        <v>-0.02922665622328323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1328263119333874</v>
+        <v>-0.1320114172635714</v>
       </c>
       <c r="C6">
-        <v>0.03774118796761332</v>
+        <v>0.05693946231898846</v>
       </c>
       <c r="D6">
-        <v>0.06485821764127146</v>
+        <v>0.006917327986308505</v>
       </c>
       <c r="E6">
-        <v>-0.08689042661264611</v>
+        <v>0.01703785602147257</v>
       </c>
       <c r="F6">
-        <v>0.054067532376889</v>
+        <v>-0.04622209841260638</v>
       </c>
       <c r="G6">
-        <v>0.1076622755451889</v>
+        <v>-0.1685712924309337</v>
       </c>
       <c r="H6">
-        <v>0.2947176888840753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1180329842951944</v>
+      </c>
+      <c r="I6">
+        <v>-0.1017651089411027</v>
+      </c>
+      <c r="J6">
+        <v>-0.3645086487108219</v>
+      </c>
+      <c r="K6">
+        <v>0.1786705373846095</v>
+      </c>
+      <c r="L6">
+        <v>-0.1259500932163096</v>
+      </c>
+      <c r="M6">
+        <v>-0.0369541074749356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06665078372865893</v>
+        <v>-0.07459531728758229</v>
       </c>
       <c r="C7">
-        <v>0.0574831006180657</v>
+        <v>0.07243283130035257</v>
       </c>
       <c r="D7">
-        <v>0.05389287210669507</v>
+        <v>0.00987935296863182</v>
       </c>
       <c r="E7">
-        <v>-0.03758759035808405</v>
+        <v>0.04837214958659552</v>
       </c>
       <c r="F7">
-        <v>0.03631611373043181</v>
+        <v>-0.01448888371247789</v>
       </c>
       <c r="G7">
-        <v>0.003089989471797267</v>
+        <v>0.005479301475755123</v>
       </c>
       <c r="H7">
-        <v>-0.0116891291672452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.05070351254293164</v>
+      </c>
+      <c r="I7">
+        <v>0.04959302980229634</v>
+      </c>
+      <c r="J7">
+        <v>-0.0008883431287147634</v>
+      </c>
+      <c r="K7">
+        <v>-0.007789566433550593</v>
+      </c>
+      <c r="L7">
+        <v>0.08482558802860958</v>
+      </c>
+      <c r="M7">
+        <v>0.02358084493291479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02710271875200583</v>
+        <v>-0.03822651886031553</v>
       </c>
       <c r="C8">
-        <v>0.006300446669547416</v>
+        <v>0.01321376582354309</v>
       </c>
       <c r="D8">
-        <v>0.04259260920688007</v>
+        <v>0.01471918074977152</v>
       </c>
       <c r="E8">
-        <v>-0.06089556560115582</v>
+        <v>0.05005016818397712</v>
       </c>
       <c r="F8">
-        <v>-0.05631316396872618</v>
+        <v>-0.1020792398658547</v>
       </c>
       <c r="G8">
-        <v>0.03164471266254745</v>
+        <v>-0.007719560113149563</v>
       </c>
       <c r="H8">
-        <v>-0.02916432003608294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.0320363319788562</v>
+      </c>
+      <c r="I8">
+        <v>-0.02049281308498031</v>
+      </c>
+      <c r="J8">
+        <v>-0.06448149549453061</v>
+      </c>
+      <c r="K8">
+        <v>-0.02168923057902842</v>
+      </c>
+      <c r="L8">
+        <v>0.04992784491897959</v>
+      </c>
+      <c r="M8">
+        <v>-0.0346338089903403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07241946840001591</v>
+        <v>-0.08278390372349785</v>
       </c>
       <c r="C9">
-        <v>0.06746014628413928</v>
+        <v>0.07223648535789104</v>
       </c>
       <c r="D9">
-        <v>0.0415777824480546</v>
+        <v>-0.003206562729416537</v>
       </c>
       <c r="E9">
-        <v>-0.04197396370794662</v>
+        <v>0.0341811903341361</v>
       </c>
       <c r="F9">
-        <v>-0.006232763241908212</v>
+        <v>-0.1163185863323055</v>
       </c>
       <c r="G9">
-        <v>-0.02097983100358288</v>
+        <v>-0.0107309714184738</v>
       </c>
       <c r="H9">
-        <v>0.000831303188224697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.05327028484085247</v>
+      </c>
+      <c r="I9">
+        <v>0.01750975741361787</v>
+      </c>
+      <c r="J9">
+        <v>-0.05583741413986828</v>
+      </c>
+      <c r="K9">
+        <v>-0.003928621245968955</v>
+      </c>
+      <c r="L9">
+        <v>0.03300527411360197</v>
+      </c>
+      <c r="M9">
+        <v>0.01107589423724438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06350958181604884</v>
+        <v>-0.1128051129009449</v>
       </c>
       <c r="C10">
-        <v>-0.1375394946483941</v>
+        <v>-0.1670984580045415</v>
       </c>
       <c r="D10">
-        <v>0.04893734113222994</v>
+        <v>0.003827631624453911</v>
       </c>
       <c r="E10">
-        <v>-0.02963515496455938</v>
+        <v>0.05156642278885983</v>
       </c>
       <c r="F10">
-        <v>0.03230642951174104</v>
+        <v>0.01232961411097892</v>
       </c>
       <c r="G10">
-        <v>0.03231556876555913</v>
+        <v>-0.008842835853123312</v>
       </c>
       <c r="H10">
-        <v>0.04020982029423597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.003371342468496472</v>
+      </c>
+      <c r="I10">
+        <v>0.05169462016159154</v>
+      </c>
+      <c r="J10">
+        <v>0.03655015999532097</v>
+      </c>
+      <c r="K10">
+        <v>0.01072921963704325</v>
+      </c>
+      <c r="L10">
+        <v>0.001455547702366906</v>
+      </c>
+      <c r="M10">
+        <v>0.1092137310370975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06493595343751812</v>
+        <v>-0.06750613779218792</v>
       </c>
       <c r="C11">
-        <v>0.08725783767853942</v>
+        <v>0.07315921478342768</v>
       </c>
       <c r="D11">
-        <v>0.03983053724028245</v>
+        <v>-0.03271944904226323</v>
       </c>
       <c r="E11">
-        <v>-0.01267143303507213</v>
+        <v>0.01832972926800312</v>
       </c>
       <c r="F11">
-        <v>-0.05610644385771881</v>
+        <v>-0.1061269442253837</v>
       </c>
       <c r="G11">
-        <v>-0.0173634471150405</v>
+        <v>0.01507218659113355</v>
       </c>
       <c r="H11">
-        <v>-0.05602904690467143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.03579761698712816</v>
+      </c>
+      <c r="I11">
+        <v>0.07062204677679754</v>
+      </c>
+      <c r="J11">
+        <v>0.03549565506544729</v>
+      </c>
+      <c r="K11">
+        <v>-0.0717512253547103</v>
+      </c>
+      <c r="L11">
+        <v>-0.01221558968450936</v>
+      </c>
+      <c r="M11">
+        <v>0.09597450203627259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05987865427850059</v>
+        <v>-0.07108231458045093</v>
       </c>
       <c r="C12">
-        <v>0.05292007652131148</v>
+        <v>0.06483607319836124</v>
       </c>
       <c r="D12">
-        <v>0.02146517344061889</v>
+        <v>-0.03071306011651242</v>
       </c>
       <c r="E12">
-        <v>-0.02341155599557635</v>
+        <v>0.007796500547804378</v>
       </c>
       <c r="F12">
-        <v>-0.005797806188105064</v>
+        <v>-0.1156544968585984</v>
       </c>
       <c r="G12">
-        <v>0.0007674110902833081</v>
+        <v>0.01915369313145265</v>
       </c>
       <c r="H12">
-        <v>-0.04663854028417257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.02439622606817533</v>
+      </c>
+      <c r="I12">
+        <v>0.06788266699533828</v>
+      </c>
+      <c r="J12">
+        <v>0.004556374477934612</v>
+      </c>
+      <c r="K12">
+        <v>-0.08867007137642252</v>
+      </c>
+      <c r="L12">
+        <v>0.01121686046172672</v>
+      </c>
+      <c r="M12">
+        <v>0.1205125068764957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.04978957166736891</v>
+        <v>-0.04616221346597935</v>
       </c>
       <c r="C13">
-        <v>0.01240803878096041</v>
+        <v>0.02990989893262378</v>
       </c>
       <c r="D13">
-        <v>0.0001154557311579783</v>
+        <v>0.02327616381730209</v>
       </c>
       <c r="E13">
-        <v>-0.01832855108086172</v>
+        <v>0.0123632899091624</v>
       </c>
       <c r="F13">
-        <v>-0.01815355950538782</v>
+        <v>-0.04019676673985341</v>
       </c>
       <c r="G13">
-        <v>-0.04853647746380403</v>
+        <v>0.01751510352917176</v>
       </c>
       <c r="H13">
-        <v>-0.005372469103052187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.03889713456841649</v>
+      </c>
+      <c r="I13">
+        <v>-0.00348071141653569</v>
+      </c>
+      <c r="J13">
+        <v>-0.02159145070595083</v>
+      </c>
+      <c r="K13">
+        <v>0.0009444007570003045</v>
+      </c>
+      <c r="L13">
+        <v>0.06581852978078406</v>
+      </c>
+      <c r="M13">
+        <v>-0.02306419368727126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04120546849170962</v>
+        <v>-0.04205442921367844</v>
       </c>
       <c r="C14">
-        <v>0.02133805144455564</v>
+        <v>0.03045092325490803</v>
       </c>
       <c r="D14">
-        <v>0.01749197769313015</v>
+        <v>-0.01102369120137711</v>
       </c>
       <c r="E14">
-        <v>0.00155065170792889</v>
+        <v>0.01664704755067563</v>
       </c>
       <c r="F14">
-        <v>0.01497520247443308</v>
+        <v>-0.05787673827491589</v>
       </c>
       <c r="G14">
-        <v>0.002416976225488996</v>
+        <v>0.01904104041075351</v>
       </c>
       <c r="H14">
-        <v>0.08220186674723076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.07055785170894251</v>
+      </c>
+      <c r="I14">
+        <v>-0.007386872906293636</v>
+      </c>
+      <c r="J14">
+        <v>-0.04458321980464568</v>
+      </c>
+      <c r="K14">
+        <v>0.04756853045980206</v>
+      </c>
+      <c r="L14">
+        <v>0.0419745475840936</v>
+      </c>
+      <c r="M14">
+        <v>-0.02362879891812369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03885340822036341</v>
+        <v>-0.02978856365897028</v>
       </c>
       <c r="C15">
-        <v>-0.008554546100964445</v>
+        <v>0.008694326229131143</v>
       </c>
       <c r="D15">
-        <v>-0.005084143574523617</v>
+        <v>0.05804780651359007</v>
       </c>
       <c r="E15">
-        <v>-0.02110590210373594</v>
+        <v>0.005004274432436511</v>
       </c>
       <c r="F15">
-        <v>0.01593121987989035</v>
+        <v>-0.0100537092719799</v>
       </c>
       <c r="G15">
-        <v>-0.01326323723142444</v>
+        <v>-0.03941614967891956</v>
       </c>
       <c r="H15">
-        <v>0.01442477359468422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03906603620395135</v>
+      </c>
+      <c r="I15">
+        <v>-0.0323606949074674</v>
+      </c>
+      <c r="J15">
+        <v>-0.02294110449852057</v>
+      </c>
+      <c r="K15">
+        <v>0.0448144738394561</v>
+      </c>
+      <c r="L15">
+        <v>0.0469839209102197</v>
+      </c>
+      <c r="M15">
+        <v>0.01494580765555864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.05138951505284831</v>
+        <v>-0.07187138716187198</v>
       </c>
       <c r="C16">
-        <v>0.0813211704554944</v>
+        <v>0.07973656951245314</v>
       </c>
       <c r="D16">
-        <v>0.03179241369397288</v>
+        <v>-0.02167556823323607</v>
       </c>
       <c r="E16">
-        <v>-0.03296218747005951</v>
+        <v>0.01775444503293202</v>
       </c>
       <c r="F16">
-        <v>-0.02780456787384965</v>
+        <v>-0.1044690298406634</v>
       </c>
       <c r="G16">
-        <v>-0.03174125941465237</v>
+        <v>0.02784897990640239</v>
       </c>
       <c r="H16">
-        <v>-0.05300867600590459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.03785648527213593</v>
+      </c>
+      <c r="I16">
+        <v>0.07204618883557228</v>
+      </c>
+      <c r="J16">
+        <v>0.01100509161250661</v>
+      </c>
+      <c r="K16">
+        <v>-0.08051243761422408</v>
+      </c>
+      <c r="L16">
+        <v>0.012332278071374</v>
+      </c>
+      <c r="M16">
+        <v>0.08561813656308795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04108088426447708</v>
+        <v>-0.0446825963372986</v>
       </c>
       <c r="C20">
-        <v>0.04526588029447653</v>
+        <v>0.03191564146255112</v>
       </c>
       <c r="D20">
-        <v>0.01134138593573247</v>
+        <v>0.0246298303063636</v>
       </c>
       <c r="E20">
-        <v>-0.0146315786458665</v>
+        <v>0.01788886411585274</v>
       </c>
       <c r="F20">
-        <v>-0.003120143230261624</v>
+        <v>-0.05665725163249285</v>
       </c>
       <c r="G20">
-        <v>-0.03509130800909158</v>
+        <v>0.02089830134927891</v>
       </c>
       <c r="H20">
-        <v>-0.009233362645223125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.03549918282668162</v>
+      </c>
+      <c r="I20">
+        <v>0.03449396755861261</v>
+      </c>
+      <c r="J20">
+        <v>-0.05574766136034148</v>
+      </c>
+      <c r="K20">
+        <v>-0.001483482503322153</v>
+      </c>
+      <c r="L20">
+        <v>0.05518435795324454</v>
+      </c>
+      <c r="M20">
+        <v>0.02832706463331749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.01346799880786818</v>
+        <v>-0.02988717858808242</v>
       </c>
       <c r="C21">
-        <v>0.02248653333282514</v>
+        <v>0.02355760626186606</v>
       </c>
       <c r="D21">
-        <v>0.00654736530328393</v>
+        <v>0.004088542029137061</v>
       </c>
       <c r="E21">
-        <v>-0.06363295486250105</v>
+        <v>0.02580859746786454</v>
       </c>
       <c r="F21">
-        <v>0.04254453528959505</v>
+        <v>-0.06753016930926375</v>
       </c>
       <c r="G21">
-        <v>0.08295759848874122</v>
+        <v>-0.08573803462733703</v>
       </c>
       <c r="H21">
-        <v>0.03420304664654373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.01015436534118437</v>
+      </c>
+      <c r="I21">
+        <v>0.07798916925435938</v>
+      </c>
+      <c r="J21">
+        <v>-0.02256483542396976</v>
+      </c>
+      <c r="K21">
+        <v>0.04917420006872814</v>
+      </c>
+      <c r="L21">
+        <v>0.09736629364517436</v>
+      </c>
+      <c r="M21">
+        <v>-0.004527387284367878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01169056760130302</v>
+        <v>-0.04251186257115263</v>
       </c>
       <c r="C22">
-        <v>0.04662535594124191</v>
+        <v>0.01665330705294559</v>
       </c>
       <c r="D22">
-        <v>-0.1330562311717062</v>
+        <v>0.6577269937687977</v>
       </c>
       <c r="E22">
-        <v>-0.4702817961267383</v>
+        <v>0.05081456367495428</v>
       </c>
       <c r="F22">
-        <v>0.2412753137000425</v>
+        <v>0.06789948597452966</v>
       </c>
       <c r="G22">
-        <v>-0.2054834254402291</v>
+        <v>0.0764494783739202</v>
       </c>
       <c r="H22">
-        <v>-0.1566205901408022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.06921903876644696</v>
+      </c>
+      <c r="I22">
+        <v>0.1158436565322783</v>
+      </c>
+      <c r="J22">
+        <v>0.0251991306916132</v>
+      </c>
+      <c r="K22">
+        <v>0.02103475344512384</v>
+      </c>
+      <c r="L22">
+        <v>-0.0250371796383906</v>
+      </c>
+      <c r="M22">
+        <v>-0.02142112117191839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.01248131924485038</v>
+        <v>-0.04313676447076013</v>
       </c>
       <c r="C23">
-        <v>0.04490725833045144</v>
+        <v>0.0167386082405485</v>
       </c>
       <c r="D23">
-        <v>-0.1332151696578979</v>
+        <v>0.659100728390129</v>
       </c>
       <c r="E23">
-        <v>-0.4707330540464565</v>
+        <v>0.05141399291642937</v>
       </c>
       <c r="F23">
-        <v>0.2381739869930691</v>
+        <v>0.06358750253235057</v>
       </c>
       <c r="G23">
-        <v>-0.2020455060022882</v>
+        <v>0.07697382833132346</v>
       </c>
       <c r="H23">
-        <v>-0.155188722135264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.07156726801838059</v>
+      </c>
+      <c r="I23">
+        <v>0.1126105476933779</v>
+      </c>
+      <c r="J23">
+        <v>0.02390479299551678</v>
+      </c>
+      <c r="K23">
+        <v>0.02188359862154656</v>
+      </c>
+      <c r="L23">
+        <v>-0.02832106637695164</v>
+      </c>
+      <c r="M23">
+        <v>-0.02406604104246095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.0713785157497364</v>
+        <v>-0.07654349124093308</v>
       </c>
       <c r="C24">
-        <v>0.07672609150954066</v>
+        <v>0.07576199448826022</v>
       </c>
       <c r="D24">
-        <v>0.04164394693999569</v>
+        <v>-0.01771370374049611</v>
       </c>
       <c r="E24">
-        <v>-0.04508349423886224</v>
+        <v>0.02001425539768545</v>
       </c>
       <c r="F24">
-        <v>-0.03462125685388924</v>
+        <v>-0.1082230111216512</v>
       </c>
       <c r="G24">
-        <v>-0.01014788481863407</v>
+        <v>0.01539916823455582</v>
       </c>
       <c r="H24">
-        <v>-0.03918600236635437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.02149720929596485</v>
+      </c>
+      <c r="I24">
+        <v>0.06589735994511126</v>
+      </c>
+      <c r="J24">
+        <v>0.01460748434311804</v>
+      </c>
+      <c r="K24">
+        <v>-0.07035197814673838</v>
+      </c>
+      <c r="L24">
+        <v>-0.01569395675932656</v>
+      </c>
+      <c r="M24">
+        <v>0.08883187394036632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06594892080162101</v>
+        <v>-0.07451810012326265</v>
       </c>
       <c r="C25">
-        <v>0.04017456604723363</v>
+        <v>0.05140744408291643</v>
       </c>
       <c r="D25">
-        <v>0.03448687848832689</v>
+        <v>-0.03354425850517293</v>
       </c>
       <c r="E25">
-        <v>-0.05112773678537218</v>
+        <v>0.01703556647973313</v>
       </c>
       <c r="F25">
-        <v>-0.04271541306431251</v>
+        <v>-0.1155119932302812</v>
       </c>
       <c r="G25">
-        <v>-0.02282055262210785</v>
+        <v>0.0314272503013923</v>
       </c>
       <c r="H25">
-        <v>-0.008455478884977857</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.03964347277614148</v>
+      </c>
+      <c r="I25">
+        <v>0.06679193857583551</v>
+      </c>
+      <c r="J25">
+        <v>0.008217556816939524</v>
+      </c>
+      <c r="K25">
+        <v>-0.08079894952335327</v>
+      </c>
+      <c r="L25">
+        <v>-0.03455739620497956</v>
+      </c>
+      <c r="M25">
+        <v>0.09504272258274248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.04001068778661532</v>
+        <v>-0.04350731029526959</v>
       </c>
       <c r="C26">
-        <v>0.03049549253204858</v>
+        <v>0.02299779706087483</v>
       </c>
       <c r="D26">
-        <v>0.04029928867562525</v>
+        <v>0.01291684223989934</v>
       </c>
       <c r="E26">
-        <v>0.00146546875207719</v>
+        <v>0.002135947084182064</v>
       </c>
       <c r="F26">
-        <v>0.01836691837631437</v>
+        <v>-0.03548654393202088</v>
       </c>
       <c r="G26">
-        <v>-0.02797127149981749</v>
+        <v>0.007735830666547843</v>
       </c>
       <c r="H26">
-        <v>-0.0006569987766170077</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.03540465435712652</v>
+      </c>
+      <c r="I26">
+        <v>0.02777849257999068</v>
+      </c>
+      <c r="J26">
+        <v>-0.0103253517843212</v>
+      </c>
+      <c r="K26">
+        <v>0.08878873980683272</v>
+      </c>
+      <c r="L26">
+        <v>0.1326280314771824</v>
+      </c>
+      <c r="M26">
+        <v>-0.005241736412793141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1251113096625299</v>
+        <v>-0.1457189567928134</v>
       </c>
       <c r="C28">
-        <v>-0.2979405281099927</v>
+        <v>-0.2863279142125404</v>
       </c>
       <c r="D28">
-        <v>0.01695241185615662</v>
+        <v>-0.01403739823493171</v>
       </c>
       <c r="E28">
-        <v>0.01973502470822291</v>
+        <v>0.02595775867119696</v>
       </c>
       <c r="F28">
-        <v>0.04429588996740568</v>
+        <v>0.0005031504927103161</v>
       </c>
       <c r="G28">
-        <v>0.03007325198856093</v>
+        <v>-0.01005696593861292</v>
       </c>
       <c r="H28">
-        <v>-0.0571325006471378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01466214934304425</v>
+      </c>
+      <c r="I28">
+        <v>0.002399756678306867</v>
+      </c>
+      <c r="J28">
+        <v>-0.01057543780421777</v>
+      </c>
+      <c r="K28">
+        <v>-0.001832781755108044</v>
+      </c>
+      <c r="L28">
+        <v>0.04450979282666187</v>
+      </c>
+      <c r="M28">
+        <v>-0.02444356675540454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.05237353364945276</v>
+        <v>-0.04453068261644406</v>
       </c>
       <c r="C29">
-        <v>0.01948071712906786</v>
+        <v>0.02865669891570603</v>
       </c>
       <c r="D29">
-        <v>0.008036962005900469</v>
+        <v>-0.003020876169762085</v>
       </c>
       <c r="E29">
-        <v>-0.02500351207565297</v>
+        <v>0.01876221770615924</v>
       </c>
       <c r="F29">
-        <v>0.008356243115413111</v>
+        <v>-0.06036070358670429</v>
       </c>
       <c r="G29">
-        <v>-0.007193379408358697</v>
+        <v>0.03273187040989129</v>
       </c>
       <c r="H29">
-        <v>0.02462831466837239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.04913032905504781</v>
+      </c>
+      <c r="I29">
+        <v>0.001694803414534088</v>
+      </c>
+      <c r="J29">
+        <v>-0.03618884978164844</v>
+      </c>
+      <c r="K29">
+        <v>0.04444498850795744</v>
+      </c>
+      <c r="L29">
+        <v>0.03593431792541508</v>
+      </c>
+      <c r="M29">
+        <v>-0.009291984709814721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1246738132396545</v>
+        <v>-0.09821745005218227</v>
       </c>
       <c r="C30">
-        <v>0.05169126636006535</v>
+        <v>0.06523372183269227</v>
       </c>
       <c r="D30">
-        <v>0.06988779606195278</v>
+        <v>0.003044672901776234</v>
       </c>
       <c r="E30">
-        <v>-0.08949014534909487</v>
+        <v>0.0255492733414779</v>
       </c>
       <c r="F30">
-        <v>0.01129657477099109</v>
+        <v>-0.1764042519602106</v>
       </c>
       <c r="G30">
-        <v>0.0102526765518989</v>
+        <v>0.05891687998762719</v>
       </c>
       <c r="H30">
-        <v>-0.04824784167340316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.02597023732891735</v>
+      </c>
+      <c r="I30">
+        <v>0.2400228949108298</v>
+      </c>
+      <c r="J30">
+        <v>-0.1901343298977879</v>
+      </c>
+      <c r="K30">
+        <v>-0.01941321780040242</v>
+      </c>
+      <c r="L30">
+        <v>0.1557320118167053</v>
+      </c>
+      <c r="M30">
+        <v>-0.3018791563718378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04667111819902327</v>
+        <v>-0.03505114482926504</v>
       </c>
       <c r="C31">
-        <v>0.02770010112026836</v>
+        <v>0.04683855047507019</v>
       </c>
       <c r="D31">
-        <v>-0.007710905656228487</v>
+        <v>0.005689169557428327</v>
       </c>
       <c r="E31">
-        <v>0.0115828515725508</v>
+        <v>-0.008589477819788928</v>
       </c>
       <c r="F31">
-        <v>0.02920015025072608</v>
+        <v>-0.01799834401463895</v>
       </c>
       <c r="G31">
-        <v>-0.04145314862795676</v>
+        <v>0.0241265822952583</v>
       </c>
       <c r="H31">
-        <v>0.005192558277522913</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.04932016898009644</v>
+      </c>
+      <c r="I31">
+        <v>-0.02366926778451411</v>
+      </c>
+      <c r="J31">
+        <v>-0.02155938563618853</v>
+      </c>
+      <c r="K31">
+        <v>-0.00750426170346746</v>
+      </c>
+      <c r="L31">
+        <v>0.01581463887683035</v>
+      </c>
+      <c r="M31">
+        <v>0.001672088208016545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02176723638265813</v>
+        <v>-0.04103093812462549</v>
       </c>
       <c r="C32">
-        <v>-0.01667037160266</v>
+        <v>-0.00404996056575305</v>
       </c>
       <c r="D32">
-        <v>-0.02383636461478759</v>
+        <v>-0.01028354222332893</v>
       </c>
       <c r="E32">
-        <v>-0.08862676779151232</v>
+        <v>0.006250397379739102</v>
       </c>
       <c r="F32">
-        <v>-0.03886032477943309</v>
+        <v>-0.08673499652608493</v>
       </c>
       <c r="G32">
-        <v>-0.04987728026209884</v>
+        <v>-0.02353592942924453</v>
       </c>
       <c r="H32">
-        <v>-0.0581991447411568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.06900147371139585</v>
+      </c>
+      <c r="I32">
+        <v>-0.04869389229629752</v>
+      </c>
+      <c r="J32">
+        <v>0.04637275018328129</v>
+      </c>
+      <c r="K32">
+        <v>-0.0216257135596389</v>
+      </c>
+      <c r="L32">
+        <v>0.05049289458264285</v>
+      </c>
+      <c r="M32">
+        <v>-0.1530275303092864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1008150591195278</v>
+        <v>-0.09828797026533452</v>
       </c>
       <c r="C33">
-        <v>0.05016752732485632</v>
+        <v>0.06706290643592741</v>
       </c>
       <c r="D33">
-        <v>0.00451211044587172</v>
+        <v>-0.009174946888708638</v>
       </c>
       <c r="E33">
-        <v>-0.01073318498212259</v>
+        <v>-0.01475191042513629</v>
       </c>
       <c r="F33">
-        <v>-0.01474209898151862</v>
+        <v>-0.06549638627108789</v>
       </c>
       <c r="G33">
-        <v>-0.05290373719204491</v>
+        <v>0.02667600818033751</v>
       </c>
       <c r="H33">
-        <v>-0.01727056765741467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.0541557164068359</v>
+      </c>
+      <c r="I33">
+        <v>0.03304764525563145</v>
+      </c>
+      <c r="J33">
+        <v>-0.02400769885122464</v>
+      </c>
+      <c r="K33">
+        <v>0.03982383383398913</v>
+      </c>
+      <c r="L33">
+        <v>0.004128138469718852</v>
+      </c>
+      <c r="M33">
+        <v>0.0122900775926958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05264288801378874</v>
+        <v>-0.06253442937499656</v>
       </c>
       <c r="C34">
-        <v>0.08354342144197605</v>
+        <v>0.06351676728697508</v>
       </c>
       <c r="D34">
-        <v>0.0260594062869602</v>
+        <v>-0.02563857309871367</v>
       </c>
       <c r="E34">
-        <v>-0.0397833774360659</v>
+        <v>0.0142213578737235</v>
       </c>
       <c r="F34">
-        <v>-0.02386331728116674</v>
+        <v>-0.09344249730547771</v>
       </c>
       <c r="G34">
-        <v>-0.009221662121004857</v>
+        <v>0.01586457380287836</v>
       </c>
       <c r="H34">
-        <v>-0.026234492194695</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.04370517495720446</v>
+      </c>
+      <c r="I34">
+        <v>0.0522690790040056</v>
+      </c>
+      <c r="J34">
+        <v>0.006548430223369072</v>
+      </c>
+      <c r="K34">
+        <v>-0.05425324454874075</v>
+      </c>
+      <c r="L34">
+        <v>-0.01222895736877603</v>
+      </c>
+      <c r="M34">
+        <v>0.1157777979233749</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.04160267836476257</v>
+        <v>-0.02610250500820063</v>
       </c>
       <c r="C35">
-        <v>0.039695031187755</v>
+        <v>0.02732097629176405</v>
       </c>
       <c r="D35">
-        <v>0.008872545126189933</v>
+        <v>-0.0008838382341926622</v>
       </c>
       <c r="E35">
-        <v>-0.01324281345763112</v>
+        <v>-0.002149987904473256</v>
       </c>
       <c r="F35">
-        <v>-0.002367840384364012</v>
+        <v>-0.02679640349198994</v>
       </c>
       <c r="G35">
-        <v>-0.01501877467831956</v>
+        <v>0.01574312646361344</v>
       </c>
       <c r="H35">
-        <v>-0.009803951236804876</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.03365930497100431</v>
+      </c>
+      <c r="I35">
+        <v>0.05025173888565924</v>
+      </c>
+      <c r="J35">
+        <v>-0.01279813647996639</v>
+      </c>
+      <c r="K35">
+        <v>-0.01423178695247677</v>
+      </c>
+      <c r="L35">
+        <v>0.06048031148680267</v>
+      </c>
+      <c r="M35">
+        <v>-0.004860257487119868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.03012721304772747</v>
+        <v>-0.02965194114809942</v>
       </c>
       <c r="C36">
-        <v>0.01889155336525455</v>
+        <v>0.02150058735077591</v>
       </c>
       <c r="D36">
-        <v>0.02723830756591272</v>
+        <v>0.01392442663027819</v>
       </c>
       <c r="E36">
-        <v>-0.02614481390303695</v>
+        <v>0.01395826924339822</v>
       </c>
       <c r="F36">
-        <v>0.0005746684924004115</v>
+        <v>-0.06216953956133945</v>
       </c>
       <c r="G36">
-        <v>-0.03598918511760917</v>
+        <v>0.01005119702025263</v>
       </c>
       <c r="H36">
-        <v>0.02395228367542775</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.03588320077168507</v>
+      </c>
+      <c r="I36">
+        <v>0.02565630066033933</v>
+      </c>
+      <c r="J36">
+        <v>-0.04310538675429689</v>
+      </c>
+      <c r="K36">
+        <v>0.02769064312581994</v>
+      </c>
+      <c r="L36">
+        <v>0.03413382987810235</v>
+      </c>
+      <c r="M36">
+        <v>0.03186369940223707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04165365683740506</v>
+        <v>-0.02988714984357294</v>
       </c>
       <c r="C38">
-        <v>0.036581766095987</v>
+        <v>0.04799254602209727</v>
       </c>
       <c r="D38">
-        <v>-0.02192602752441726</v>
+        <v>0.02568849758423042</v>
       </c>
       <c r="E38">
-        <v>-0.03977378435005097</v>
+        <v>0.002893994910640945</v>
       </c>
       <c r="F38">
-        <v>-0.002876326230974641</v>
+        <v>0.04239433843886257</v>
       </c>
       <c r="G38">
-        <v>-0.01585112036894516</v>
+        <v>0.05183889303016298</v>
       </c>
       <c r="H38">
-        <v>-0.04625823904459579</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.02698661955724589</v>
+      </c>
+      <c r="I38">
+        <v>0.02318957641156514</v>
+      </c>
+      <c r="J38">
+        <v>0.05071455301748917</v>
+      </c>
+      <c r="K38">
+        <v>0.1029929432127165</v>
+      </c>
+      <c r="L38">
+        <v>0.06234886768787249</v>
+      </c>
+      <c r="M38">
+        <v>-0.1043672401379141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.0931370886237327</v>
+        <v>-0.09876401661779113</v>
       </c>
       <c r="C39">
-        <v>0.09930550681691071</v>
+        <v>0.09330289829924984</v>
       </c>
       <c r="D39">
-        <v>0.02034384373476409</v>
+        <v>-0.08396493870968051</v>
       </c>
       <c r="E39">
-        <v>-0.03748180831926022</v>
+        <v>-0.01348917440684101</v>
       </c>
       <c r="F39">
-        <v>-0.04763090258180798</v>
+        <v>-0.146307501747727</v>
       </c>
       <c r="G39">
-        <v>0.01351066614355576</v>
+        <v>0.09374636452234747</v>
       </c>
       <c r="H39">
-        <v>-0.121039480295552</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.0106850060814205</v>
+      </c>
+      <c r="I39">
+        <v>0.1569988281719953</v>
+      </c>
+      <c r="J39">
+        <v>0.01543978475248827</v>
+      </c>
+      <c r="K39">
+        <v>-0.1937850098020332</v>
+      </c>
+      <c r="L39">
+        <v>0.03026476926976324</v>
+      </c>
+      <c r="M39">
+        <v>-0.06962151221043189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.05584806226761795</v>
+        <v>-0.03748655482309415</v>
       </c>
       <c r="C40">
-        <v>0.04664449943384465</v>
+        <v>0.05837045707494252</v>
       </c>
       <c r="D40">
-        <v>-0.04314627234292285</v>
+        <v>0.04984954251404856</v>
       </c>
       <c r="E40">
-        <v>-0.146308589244282</v>
+        <v>-0.001413952905827042</v>
       </c>
       <c r="F40">
-        <v>-0.02260567770870237</v>
+        <v>-0.1235359387175744</v>
       </c>
       <c r="G40">
-        <v>-0.05854662956649332</v>
+        <v>-0.05598472949802384</v>
       </c>
       <c r="H40">
-        <v>-0.1192868764382744</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.01273789922227539</v>
+      </c>
+      <c r="I40">
+        <v>0.06809534556500464</v>
+      </c>
+      <c r="J40">
+        <v>0.07611890840312083</v>
+      </c>
+      <c r="K40">
+        <v>0.07715946398426544</v>
+      </c>
+      <c r="L40">
+        <v>0.09462199406327369</v>
+      </c>
+      <c r="M40">
+        <v>-0.0250250711949786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04383227062444129</v>
+        <v>-0.03763471363428058</v>
       </c>
       <c r="C41">
-        <v>0.05196264244731381</v>
+        <v>0.03612097313263506</v>
       </c>
       <c r="D41">
-        <v>0.0145516923614286</v>
+        <v>-0.01650825585464653</v>
       </c>
       <c r="E41">
-        <v>-0.0008092920753589095</v>
+        <v>0.0005659148265896702</v>
       </c>
       <c r="F41">
-        <v>-0.01293186579854262</v>
+        <v>-0.01418953094517304</v>
       </c>
       <c r="G41">
-        <v>-0.02425639869194455</v>
+        <v>0.0283594006824495</v>
       </c>
       <c r="H41">
-        <v>-0.02812808954273922</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.01154059989394215</v>
+      </c>
+      <c r="I41">
+        <v>0.005308094141341057</v>
+      </c>
+      <c r="J41">
+        <v>0.01347386384165826</v>
+      </c>
+      <c r="K41">
+        <v>0.01463790112387166</v>
+      </c>
+      <c r="L41">
+        <v>0.04614938140154922</v>
+      </c>
+      <c r="M41">
+        <v>0.02999628111355699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.0549504866827045</v>
+        <v>-0.05121823730860864</v>
       </c>
       <c r="C43">
-        <v>0.04275985571681192</v>
+        <v>0.04859732087812688</v>
       </c>
       <c r="D43">
-        <v>0.02969001912598321</v>
+        <v>0.01273824086655543</v>
       </c>
       <c r="E43">
-        <v>-0.02369557646911952</v>
+        <v>0.01304619431908733</v>
       </c>
       <c r="F43">
-        <v>0.0196152478101986</v>
+        <v>-0.01248800880755499</v>
       </c>
       <c r="G43">
-        <v>-0.02429311998652038</v>
+        <v>0.05969659843674911</v>
       </c>
       <c r="H43">
-        <v>-0.01622623290368276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.005335361178996329</v>
+      </c>
+      <c r="I43">
+        <v>0.006184378740649875</v>
+      </c>
+      <c r="J43">
+        <v>-6.120037064908401e-05</v>
+      </c>
+      <c r="K43">
+        <v>-0.008198043466873112</v>
+      </c>
+      <c r="L43">
+        <v>0.03093740902094319</v>
+      </c>
+      <c r="M43">
+        <v>0.01974097758933478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.0512342319553276</v>
+        <v>-0.0828011056028287</v>
       </c>
       <c r="C44">
-        <v>0.004621309954161395</v>
+        <v>0.05390543737653753</v>
       </c>
       <c r="D44">
-        <v>0.07478302865576626</v>
+        <v>0.07303998646537327</v>
       </c>
       <c r="E44">
-        <v>-0.1279915365053119</v>
+        <v>0.09988493585048593</v>
       </c>
       <c r="F44">
-        <v>-0.05090980132736475</v>
+        <v>-0.1493173907852066</v>
       </c>
       <c r="G44">
-        <v>-0.008001902396471666</v>
+        <v>0.01393572740932551</v>
       </c>
       <c r="H44">
-        <v>-0.01402706648748687</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.07113465700082348</v>
+      </c>
+      <c r="I44">
+        <v>0.08859992434600053</v>
+      </c>
+      <c r="J44">
+        <v>0.03375786715615915</v>
+      </c>
+      <c r="K44">
+        <v>0.003781001603203569</v>
+      </c>
+      <c r="L44">
+        <v>0.03760295807910576</v>
+      </c>
+      <c r="M44">
+        <v>-0.09219553768723386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01987437291412837</v>
+        <v>-0.03261195884548608</v>
       </c>
       <c r="C46">
-        <v>0.04355176987667143</v>
+        <v>0.04023091782910692</v>
       </c>
       <c r="D46">
-        <v>0.01390947423548192</v>
+        <v>0.04149092432560051</v>
       </c>
       <c r="E46">
-        <v>-0.0454320672253967</v>
+        <v>0.03912208291756182</v>
       </c>
       <c r="F46">
-        <v>-0.001172988106909013</v>
+        <v>-0.03604889445065852</v>
       </c>
       <c r="G46">
-        <v>-0.002997489957758764</v>
+        <v>-0.01467818695380547</v>
       </c>
       <c r="H46">
-        <v>-0.008482657488738693</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.06932180117736608</v>
+      </c>
+      <c r="I46">
+        <v>-0.002609247914891406</v>
+      </c>
+      <c r="J46">
+        <v>-0.0297581126758401</v>
+      </c>
+      <c r="K46">
+        <v>0.0658337689231797</v>
+      </c>
+      <c r="L46">
+        <v>0.06090721272826966</v>
+      </c>
+      <c r="M46">
+        <v>0.01374599180391613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.0269203104819716</v>
+        <v>-0.04627000124551529</v>
       </c>
       <c r="C47">
-        <v>0.001403967410888787</v>
+        <v>0.02858208217151387</v>
       </c>
       <c r="D47">
-        <v>-0.01544125917569705</v>
+        <v>0.01955558778538394</v>
       </c>
       <c r="E47">
-        <v>-0.07212978761724899</v>
+        <v>0.01014631439724783</v>
       </c>
       <c r="F47">
-        <v>0.008360193836859663</v>
+        <v>-0.0391267213767888</v>
       </c>
       <c r="G47">
-        <v>-0.0305468309643671</v>
+        <v>0.02128543657161889</v>
       </c>
       <c r="H47">
-        <v>0.04302470518432251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.02594599876300682</v>
+      </c>
+      <c r="I47">
+        <v>0.03076053251345258</v>
+      </c>
+      <c r="J47">
+        <v>-0.03557342965064816</v>
+      </c>
+      <c r="K47">
+        <v>0.03941245409273984</v>
+      </c>
+      <c r="L47">
+        <v>0.01251758554927818</v>
+      </c>
+      <c r="M47">
+        <v>0.04224541310008555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03028561803512361</v>
+        <v>-0.04203521882345142</v>
       </c>
       <c r="C48">
-        <v>0.02765508397764775</v>
+        <v>0.02244120010056455</v>
       </c>
       <c r="D48">
-        <v>0.00403671137113328</v>
+        <v>0.01107478069859563</v>
       </c>
       <c r="E48">
-        <v>-0.04438187961308599</v>
+        <v>0.003746625941840822</v>
       </c>
       <c r="F48">
-        <v>0.02030772895415751</v>
+        <v>-0.07169438666992993</v>
       </c>
       <c r="G48">
-        <v>-0.04392183923652607</v>
+        <v>-0.02819416919012236</v>
       </c>
       <c r="H48">
-        <v>-0.0006972919449867838</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.04528982801011791</v>
+      </c>
+      <c r="I48">
+        <v>0.02659091880975702</v>
+      </c>
+      <c r="J48">
+        <v>-0.04220294016654492</v>
+      </c>
+      <c r="K48">
+        <v>-0.007075563057156249</v>
+      </c>
+      <c r="L48">
+        <v>0.04493652454571657</v>
+      </c>
+      <c r="M48">
+        <v>0.0229334652597606</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1916058161662696</v>
+        <v>-0.223841206473764</v>
       </c>
       <c r="C49">
-        <v>0.1245343113315644</v>
+        <v>0.08021197074364934</v>
       </c>
       <c r="D49">
-        <v>0.08642544683834695</v>
+        <v>-0.05463573023694149</v>
       </c>
       <c r="E49">
-        <v>0.07307531532365957</v>
+        <v>0.02812357822303417</v>
       </c>
       <c r="F49">
-        <v>0.1014478595193937</v>
+        <v>0.2377377409720796</v>
       </c>
       <c r="G49">
-        <v>0.162219636080311</v>
+        <v>-0.1437247510811123</v>
       </c>
       <c r="H49">
-        <v>-0.009929367611744153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.03751381584605321</v>
+      </c>
+      <c r="I49">
+        <v>0.1516371725211962</v>
+      </c>
+      <c r="J49">
+        <v>0.1021736755923038</v>
+      </c>
+      <c r="K49">
+        <v>-0.08597318313597938</v>
+      </c>
+      <c r="L49">
+        <v>-0.1417685134609468</v>
+      </c>
+      <c r="M49">
+        <v>0.1215489714170509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05467431740949093</v>
+        <v>-0.04333331016723602</v>
       </c>
       <c r="C50">
-        <v>0.02851670532704817</v>
+        <v>0.04391436168447708</v>
       </c>
       <c r="D50">
-        <v>0.001352351215229808</v>
+        <v>0.003098407377138102</v>
       </c>
       <c r="E50">
-        <v>-0.0199383915559587</v>
+        <v>-0.01175498933503153</v>
       </c>
       <c r="F50">
-        <v>0.0127025105131282</v>
+        <v>-0.04268257556337837</v>
       </c>
       <c r="G50">
-        <v>-0.06781157628855203</v>
+        <v>0.03675719363120831</v>
       </c>
       <c r="H50">
-        <v>0.03667584802957555</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.03863426523516746</v>
+      </c>
+      <c r="I50">
+        <v>-0.01218032264401073</v>
+      </c>
+      <c r="J50">
+        <v>-0.03954171301113865</v>
+      </c>
+      <c r="K50">
+        <v>0.03942335057847059</v>
+      </c>
+      <c r="L50">
+        <v>0.01876087411118305</v>
+      </c>
+      <c r="M50">
+        <v>-0.02369256981400549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02873703149736449</v>
+        <v>-0.02927707117239019</v>
       </c>
       <c r="C51">
-        <v>0.01364800402779077</v>
+        <v>0.005744860110134092</v>
       </c>
       <c r="D51">
-        <v>-0.0004037682847074507</v>
+        <v>-0.001327381312137714</v>
       </c>
       <c r="E51">
-        <v>-0.01484244486235275</v>
+        <v>0.01942345049985904</v>
       </c>
       <c r="F51">
-        <v>-0.01111998241765328</v>
+        <v>0.01649911357910949</v>
       </c>
       <c r="G51">
-        <v>0.01419125555934921</v>
+        <v>0.009716810925491653</v>
       </c>
       <c r="H51">
-        <v>-0.01488388226816009</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01403624564204498</v>
+      </c>
+      <c r="I51">
+        <v>0.0186399436794267</v>
+      </c>
+      <c r="J51">
+        <v>0.0170476147895928</v>
+      </c>
+      <c r="K51">
+        <v>-0.06438750953872159</v>
+      </c>
+      <c r="L51">
+        <v>-0.05845254574100441</v>
+      </c>
+      <c r="M51">
+        <v>-0.006065127447122386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.01977423691455235</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.004845675628319585</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01232292856505805</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.003019507948939104</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.0007605933929855356</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.007197395415569664</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.01218024845317726</v>
+      </c>
+      <c r="I52">
+        <v>0.002760830226826658</v>
+      </c>
+      <c r="J52">
+        <v>-0.003735434063041936</v>
+      </c>
+      <c r="K52">
+        <v>-0.01209449616161537</v>
+      </c>
+      <c r="L52">
+        <v>0.01131356074964147</v>
+      </c>
+      <c r="M52">
+        <v>-0.03473517609925167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1669932351815639</v>
+        <v>-0.1538993404838751</v>
       </c>
       <c r="C53">
-        <v>0.02111946108335789</v>
+        <v>0.04547102444573276</v>
       </c>
       <c r="D53">
-        <v>0.01913258732447537</v>
+        <v>-0.009092254077846012</v>
       </c>
       <c r="E53">
-        <v>0.07419886018408363</v>
+        <v>-0.01241942701284867</v>
       </c>
       <c r="F53">
-        <v>-0.1501537373240402</v>
+        <v>0.07066220735428204</v>
       </c>
       <c r="G53">
-        <v>-0.2279769190411738</v>
+        <v>0.2134790380472896</v>
       </c>
       <c r="H53">
-        <v>0.03127322400144403</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.06345864054485316</v>
+      </c>
+      <c r="I53">
+        <v>-0.1152287596841874</v>
+      </c>
+      <c r="J53">
+        <v>0.02098003167267619</v>
+      </c>
+      <c r="K53">
+        <v>0.09334860752328458</v>
+      </c>
+      <c r="L53">
+        <v>-0.06833678671556984</v>
+      </c>
+      <c r="M53">
+        <v>-0.1049163004299328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.04413210343834511</v>
+        <v>-0.05752835185447493</v>
       </c>
       <c r="C54">
-        <v>0.02927410921888642</v>
+        <v>0.03565142953724761</v>
       </c>
       <c r="D54">
-        <v>0.02780328553889715</v>
+        <v>0.01587245302306267</v>
       </c>
       <c r="E54">
-        <v>-0.04495821347580663</v>
+        <v>0.02799688960971225</v>
       </c>
       <c r="F54">
-        <v>-0.003433192526363834</v>
+        <v>-0.116160166533428</v>
       </c>
       <c r="G54">
-        <v>-0.01738249775092577</v>
+        <v>-0.02522283170098883</v>
       </c>
       <c r="H54">
-        <v>-0.0006543985503411763</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.05082563483351221</v>
+      </c>
+      <c r="I54">
+        <v>-0.04397522400158665</v>
+      </c>
+      <c r="J54">
+        <v>-0.06452074033902426</v>
+      </c>
+      <c r="K54">
+        <v>0.050906761261953</v>
+      </c>
+      <c r="L54">
+        <v>0.1036089965072283</v>
+      </c>
+      <c r="M54">
+        <v>0.02625412317721626</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.08905641734018607</v>
+        <v>-0.08586671902213196</v>
       </c>
       <c r="C55">
-        <v>0.005210046690911768</v>
+        <v>0.03866060742058018</v>
       </c>
       <c r="D55">
-        <v>0.009466883411478619</v>
+        <v>-0.02633099721991122</v>
       </c>
       <c r="E55">
-        <v>0.01066897405260394</v>
+        <v>0.0008035405134799177</v>
       </c>
       <c r="F55">
-        <v>-0.1245186506308049</v>
+        <v>-0.005443143281063721</v>
       </c>
       <c r="G55">
-        <v>-0.1961745648284122</v>
+        <v>0.1406245042894843</v>
       </c>
       <c r="H55">
-        <v>0.04798319335733141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.05916224238990767</v>
+      </c>
+      <c r="I55">
+        <v>-0.07698866060731212</v>
+      </c>
+      <c r="J55">
+        <v>0.01015532605199712</v>
+      </c>
+      <c r="K55">
+        <v>0.06297074276066053</v>
+      </c>
+      <c r="L55">
+        <v>-0.05411583240549477</v>
+      </c>
+      <c r="M55">
+        <v>-0.02133596719431934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1660746546715477</v>
+        <v>-0.1491767992568205</v>
       </c>
       <c r="C56">
-        <v>0.02123304011714615</v>
+        <v>0.0693801634802895</v>
       </c>
       <c r="D56">
-        <v>0.04018948511816186</v>
+        <v>-0.02909777092786435</v>
       </c>
       <c r="E56">
-        <v>0.06693116336023328</v>
+        <v>0.007169815090052394</v>
       </c>
       <c r="F56">
-        <v>-0.116232630904804</v>
+        <v>0.03939551409324361</v>
       </c>
       <c r="G56">
-        <v>-0.2222030693968575</v>
+        <v>0.2103376369886057</v>
       </c>
       <c r="H56">
-        <v>0.03487524498691737</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.04256061172710021</v>
+      </c>
+      <c r="I56">
+        <v>-0.1198903932996358</v>
+      </c>
+      <c r="J56">
+        <v>0.04720996263489131</v>
+      </c>
+      <c r="K56">
+        <v>0.09757076405364092</v>
+      </c>
+      <c r="L56">
+        <v>-0.05449195390766439</v>
+      </c>
+      <c r="M56">
+        <v>-0.05636451695725695</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.03971068479640472</v>
+        <v>-0.03462607176409548</v>
       </c>
       <c r="C58">
-        <v>0.02821631550713997</v>
+        <v>0.03309009075180715</v>
       </c>
       <c r="D58">
-        <v>0.009779578101750902</v>
+        <v>0.08316173219405877</v>
       </c>
       <c r="E58">
-        <v>-0.3185222990093142</v>
+        <v>0.02003202124308411</v>
       </c>
       <c r="F58">
-        <v>0.2150190701121914</v>
+        <v>-0.04101246808325545</v>
       </c>
       <c r="G58">
-        <v>0.05525429575371754</v>
+        <v>-0.06152497627756013</v>
       </c>
       <c r="H58">
-        <v>0.185477541079983</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.02564631286949648</v>
+      </c>
+      <c r="I58">
+        <v>0.1710367520145329</v>
+      </c>
+      <c r="J58">
+        <v>-0.240713521374332</v>
+      </c>
+      <c r="K58">
+        <v>-0.3062596919469262</v>
+      </c>
+      <c r="L58">
+        <v>-0.007304844317724726</v>
+      </c>
+      <c r="M58">
+        <v>0.07022074607121016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2511079310837666</v>
+        <v>-0.2281946796169809</v>
       </c>
       <c r="C59">
-        <v>-0.3987118175450117</v>
+        <v>-0.3000211700540695</v>
       </c>
       <c r="D59">
-        <v>0.007736410215445976</v>
+        <v>-0.04772906487580861</v>
       </c>
       <c r="E59">
-        <v>-0.00726764175452983</v>
+        <v>0.007023038578130916</v>
       </c>
       <c r="F59">
-        <v>-0.0570904580627595</v>
+        <v>-0.02875876534960752</v>
       </c>
       <c r="G59">
-        <v>-0.03309758170532814</v>
+        <v>0.06840879375267826</v>
       </c>
       <c r="H59">
-        <v>-0.07674653703055778</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.001413430686869584</v>
+      </c>
+      <c r="I59">
+        <v>-0.09573165090764675</v>
+      </c>
+      <c r="J59">
+        <v>0.08710377870743789</v>
+      </c>
+      <c r="K59">
+        <v>-0.05532194583162336</v>
+      </c>
+      <c r="L59">
+        <v>-0.01889424583446646</v>
+      </c>
+      <c r="M59">
+        <v>-0.03276986922959092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2537092944255475</v>
+        <v>-0.2423691611196448</v>
       </c>
       <c r="C60">
-        <v>0.07699929218551628</v>
+        <v>0.1196438689848095</v>
       </c>
       <c r="D60">
-        <v>0.100733818104618</v>
+        <v>-0.06478977906066563</v>
       </c>
       <c r="E60">
-        <v>-0.008549578363490504</v>
+        <v>0.04583225695340418</v>
       </c>
       <c r="F60">
-        <v>0.02920428444722968</v>
+        <v>0.09882512566624126</v>
       </c>
       <c r="G60">
-        <v>0.0463559529889589</v>
+        <v>-0.0330074939590179</v>
       </c>
       <c r="H60">
-        <v>0.05616313101898242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.09429056067076087</v>
+      </c>
+      <c r="I60">
+        <v>-0.01156990686897459</v>
+      </c>
+      <c r="J60">
+        <v>-0.04226205984831004</v>
+      </c>
+      <c r="K60">
+        <v>0.01347003540503302</v>
+      </c>
+      <c r="L60">
+        <v>-0.2131660229855296</v>
+      </c>
+      <c r="M60">
+        <v>-0.03306364265976391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08399786029983433</v>
+        <v>-0.09177392447804131</v>
       </c>
       <c r="C61">
-        <v>0.06429887005909531</v>
+        <v>0.06659923852271768</v>
       </c>
       <c r="D61">
-        <v>0.0205090020772003</v>
+        <v>-0.04613755087041331</v>
       </c>
       <c r="E61">
-        <v>-0.009520275165838938</v>
+        <v>0.01535152202935085</v>
       </c>
       <c r="F61">
-        <v>-0.01188804579718823</v>
+        <v>-0.1162081457191735</v>
       </c>
       <c r="G61">
-        <v>-0.0169068333286743</v>
+        <v>0.08266119061498295</v>
       </c>
       <c r="H61">
-        <v>-0.06233668936536799</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.02402500198520446</v>
+      </c>
+      <c r="I61">
+        <v>0.06672519611098272</v>
+      </c>
+      <c r="J61">
+        <v>0.01565747096632047</v>
+      </c>
+      <c r="K61">
+        <v>-0.07245448099970159</v>
+      </c>
+      <c r="L61">
+        <v>0.04873166276059712</v>
+      </c>
+      <c r="M61">
+        <v>-0.01187232257335001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1626205950115587</v>
+        <v>-0.1403770945657941</v>
       </c>
       <c r="C62">
-        <v>0.06093010952869497</v>
+        <v>0.07244138333751567</v>
       </c>
       <c r="D62">
-        <v>0.004121337997784</v>
+        <v>-0.02661471635121638</v>
       </c>
       <c r="E62">
-        <v>0.1148399493147192</v>
+        <v>-0.03920220724839929</v>
       </c>
       <c r="F62">
-        <v>-0.1804892341963067</v>
+        <v>0.03817085768709812</v>
       </c>
       <c r="G62">
-        <v>-0.1698292130842323</v>
+        <v>0.1549248342294731</v>
       </c>
       <c r="H62">
-        <v>-0.01377785662004382</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.07006294681168045</v>
+      </c>
+      <c r="I62">
+        <v>-0.1142352609921331</v>
+      </c>
+      <c r="J62">
+        <v>0.05700130823549607</v>
+      </c>
+      <c r="K62">
+        <v>0.1615839415189275</v>
+      </c>
+      <c r="L62">
+        <v>-0.0363845325519836</v>
+      </c>
+      <c r="M62">
+        <v>-0.003331954636188446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04164556026682217</v>
+        <v>-0.04612808851684936</v>
       </c>
       <c r="C63">
-        <v>0.0418877433072889</v>
+        <v>0.02798463987535805</v>
       </c>
       <c r="D63">
-        <v>0.008288813058291791</v>
+        <v>-0.00836439968918826</v>
       </c>
       <c r="E63">
-        <v>-0.004404190738816952</v>
+        <v>-0.01310498058976137</v>
       </c>
       <c r="F63">
-        <v>-0.01391857162888954</v>
+        <v>-0.06317108081232534</v>
       </c>
       <c r="G63">
-        <v>-0.01916039233360822</v>
+        <v>0.005650194149626747</v>
       </c>
       <c r="H63">
-        <v>0.04790940744016623</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.02342689898927842</v>
+      </c>
+      <c r="I63">
+        <v>0.02259724650375532</v>
+      </c>
+      <c r="J63">
+        <v>-0.04457285123441256</v>
+      </c>
+      <c r="K63">
+        <v>0.01149977654484595</v>
+      </c>
+      <c r="L63">
+        <v>0.0179185163088724</v>
+      </c>
+      <c r="M63">
+        <v>0.01576976269548923</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1018132349502938</v>
+        <v>-0.09952031895712767</v>
       </c>
       <c r="C64">
-        <v>0.02552741479960848</v>
+        <v>0.0479940608432167</v>
       </c>
       <c r="D64">
-        <v>0.03364707605305724</v>
+        <v>0.004151879272059652</v>
       </c>
       <c r="E64">
-        <v>-0.03650966163764525</v>
+        <v>0.03821710628300099</v>
       </c>
       <c r="F64">
-        <v>0.007139172301815087</v>
+        <v>-0.06671080183912222</v>
       </c>
       <c r="G64">
-        <v>0.01694129748857456</v>
+        <v>0.01809428734232648</v>
       </c>
       <c r="H64">
-        <v>-0.04087890741420359</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.005600465264547346</v>
+      </c>
+      <c r="I64">
+        <v>0.07013193987760363</v>
+      </c>
+      <c r="J64">
+        <v>-0.03303129067235145</v>
+      </c>
+      <c r="K64">
+        <v>-0.01877901007808316</v>
+      </c>
+      <c r="L64">
+        <v>0.03734766038687199</v>
+      </c>
+      <c r="M64">
+        <v>-0.01198413551217539</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1287463814955774</v>
+        <v>-0.1254185544662181</v>
       </c>
       <c r="C65">
-        <v>0.04857796923255924</v>
+        <v>0.04975497904987836</v>
       </c>
       <c r="D65">
-        <v>0.04845931634387867</v>
+        <v>-0.004953611965556678</v>
       </c>
       <c r="E65">
-        <v>-0.1182645670492119</v>
+        <v>-0.01151514682607481</v>
       </c>
       <c r="F65">
-        <v>0.08971227558033247</v>
+        <v>-0.04857543032787456</v>
       </c>
       <c r="G65">
-        <v>0.1248647875656361</v>
+        <v>-0.2021147705520159</v>
       </c>
       <c r="H65">
-        <v>0.6746491136253246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.1533986005789663</v>
+      </c>
+      <c r="I65">
+        <v>-0.08825904386169753</v>
+      </c>
+      <c r="J65">
+        <v>-0.5542353465507794</v>
+      </c>
+      <c r="K65">
+        <v>0.2857806545097232</v>
+      </c>
+      <c r="L65">
+        <v>-0.2498239025811144</v>
+      </c>
+      <c r="M65">
+        <v>-0.1287835779025346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.151476505754968</v>
+        <v>-0.1259233784323496</v>
       </c>
       <c r="C66">
-        <v>0.139179183236912</v>
+        <v>0.1329322562078968</v>
       </c>
       <c r="D66">
-        <v>0.04191815167529386</v>
+        <v>-0.09973788516285186</v>
       </c>
       <c r="E66">
-        <v>-0.00253155749706388</v>
+        <v>-0.02921341727783673</v>
       </c>
       <c r="F66">
-        <v>-0.1028356173623532</v>
+        <v>-0.1537068712281139</v>
       </c>
       <c r="G66">
-        <v>0.03053996251222854</v>
+        <v>0.10338754980318</v>
       </c>
       <c r="H66">
-        <v>-0.252544947349266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.000317723879273491</v>
+      </c>
+      <c r="I66">
+        <v>0.1782177414413502</v>
+      </c>
+      <c r="J66">
+        <v>0.09594338296779571</v>
+      </c>
+      <c r="K66">
+        <v>-0.1857821992668504</v>
+      </c>
+      <c r="L66">
+        <v>0.0290843731570585</v>
+      </c>
+      <c r="M66">
+        <v>-0.1198185852597107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07790974964391398</v>
+        <v>-0.08062252383521554</v>
       </c>
       <c r="C67">
-        <v>0.0548475522754483</v>
+        <v>0.0600568578914973</v>
       </c>
       <c r="D67">
-        <v>0.007808448234323541</v>
+        <v>0.0222051875801084</v>
       </c>
       <c r="E67">
-        <v>-0.008975361350427657</v>
+        <v>0.01730680242853878</v>
       </c>
       <c r="F67">
-        <v>-0.001473474780726532</v>
+        <v>0.04066347688953351</v>
       </c>
       <c r="G67">
-        <v>0.003957163521688682</v>
+        <v>0.09410174950182407</v>
       </c>
       <c r="H67">
-        <v>-0.06165469539889047</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.06854538555423914</v>
+      </c>
+      <c r="I67">
+        <v>0.01198726945937652</v>
+      </c>
+      <c r="J67">
+        <v>0.09332575450986873</v>
+      </c>
+      <c r="K67">
+        <v>0.06309054983912009</v>
+      </c>
+      <c r="L67">
+        <v>0.03490722810294784</v>
+      </c>
+      <c r="M67">
+        <v>-0.06983451179736287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1048802958971284</v>
+        <v>-0.1221427588763512</v>
       </c>
       <c r="C68">
-        <v>-0.2737093050356746</v>
+        <v>-0.2738756344750647</v>
       </c>
       <c r="D68">
-        <v>-0.02207448370445892</v>
+        <v>-0.009617853541552531</v>
       </c>
       <c r="E68">
-        <v>-0.004439606965223464</v>
+        <v>0.0008704415693810567</v>
       </c>
       <c r="F68">
-        <v>0.01287228508439737</v>
+        <v>-0.02870938184546934</v>
       </c>
       <c r="G68">
-        <v>-0.04695024910136665</v>
+        <v>0.0271872579452235</v>
       </c>
       <c r="H68">
-        <v>0.01918570611397713</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.01259633931138402</v>
+      </c>
+      <c r="I68">
+        <v>0.006148880363763129</v>
+      </c>
+      <c r="J68">
+        <v>-0.07053713090611624</v>
+      </c>
+      <c r="K68">
+        <v>0.01720548771577485</v>
+      </c>
+      <c r="L68">
+        <v>0.001140188744064283</v>
+      </c>
+      <c r="M68">
+        <v>-0.03705797547606692</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.03880674535993768</v>
+        <v>-0.04249788734545767</v>
       </c>
       <c r="C69">
-        <v>0.03249807402909449</v>
+        <v>0.02443651635136689</v>
       </c>
       <c r="D69">
-        <v>0.007935564150107613</v>
+        <v>0.006791930046679238</v>
       </c>
       <c r="E69">
-        <v>-0.01938722806247442</v>
+        <v>0.0001829078125140226</v>
       </c>
       <c r="F69">
-        <v>-0.03546933420011588</v>
+        <v>-0.01880732859234018</v>
       </c>
       <c r="G69">
-        <v>-0.01321087478138171</v>
+        <v>0.03277021873027819</v>
       </c>
       <c r="H69">
-        <v>0.01118869144461462</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.0002307947162552179</v>
+      </c>
+      <c r="I69">
+        <v>0.01223049011327485</v>
+      </c>
+      <c r="J69">
+        <v>0.005682919474799989</v>
+      </c>
+      <c r="K69">
+        <v>0.02395668575659608</v>
+      </c>
+      <c r="L69">
+        <v>-0.003641170535098436</v>
+      </c>
+      <c r="M69">
+        <v>0.07686791067375533</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.04840109536907782</v>
+        <v>-0.05213443623629328</v>
       </c>
       <c r="C70">
-        <v>-0.0005404830487395545</v>
+        <v>0.03461406169419961</v>
       </c>
       <c r="D70">
-        <v>0.04030268527316365</v>
+        <v>-0.02272257623981387</v>
       </c>
       <c r="E70">
-        <v>0.02134321943019539</v>
+        <v>0.02012904273526351</v>
       </c>
       <c r="F70">
-        <v>0.0932139088183538</v>
+        <v>-0.001075645150997347</v>
       </c>
       <c r="G70">
-        <v>0.05891618192833627</v>
+        <v>-0.06391446402317212</v>
       </c>
       <c r="H70">
-        <v>-0.03120091414181224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.01689742427515773</v>
+      </c>
+      <c r="I70">
+        <v>-0.03072997185634785</v>
+      </c>
+      <c r="J70">
+        <v>-0.04009411412765834</v>
+      </c>
+      <c r="K70">
+        <v>0.1558312250386931</v>
+      </c>
+      <c r="L70">
+        <v>0.266208265337583</v>
+      </c>
+      <c r="M70">
+        <v>0.1496061956532962</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1086991286927073</v>
+        <v>-0.1370074638472856</v>
       </c>
       <c r="C71">
-        <v>-0.2819879650257668</v>
+        <v>-0.2814474172303675</v>
       </c>
       <c r="D71">
-        <v>0.01162914040784947</v>
+        <v>-0.01367833804774446</v>
       </c>
       <c r="E71">
-        <v>0.00651651060619605</v>
+        <v>0.02026761627832007</v>
       </c>
       <c r="F71">
-        <v>0.03190672651931081</v>
+        <v>-0.02919416549890263</v>
       </c>
       <c r="G71">
-        <v>-0.02772480740264017</v>
+        <v>0.03056779572937895</v>
       </c>
       <c r="H71">
-        <v>0.0007931605613016554</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.006279379753692848</v>
+      </c>
+      <c r="I71">
+        <v>0.03331345632637748</v>
+      </c>
+      <c r="J71">
+        <v>-0.03525497850000364</v>
+      </c>
+      <c r="K71">
+        <v>0.004882636190766035</v>
+      </c>
+      <c r="L71">
+        <v>-0.003283293146512649</v>
+      </c>
+      <c r="M71">
+        <v>-0.02409803735984946</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.186577463801704</v>
+        <v>-0.1440671887035387</v>
       </c>
       <c r="C72">
-        <v>0.05573251949778373</v>
+        <v>0.0315385314993628</v>
       </c>
       <c r="D72">
-        <v>-0.2353518191412063</v>
+        <v>0.007477286248633345</v>
       </c>
       <c r="E72">
-        <v>0.02232792157747731</v>
+        <v>-0.1874884446389548</v>
       </c>
       <c r="F72">
-        <v>-0.1065425035853923</v>
+        <v>-0.0533420296131262</v>
       </c>
       <c r="G72">
-        <v>0.06134418608326526</v>
+        <v>0.0161615052431875</v>
       </c>
       <c r="H72">
-        <v>0.1000549294419325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.06091893894860954</v>
+      </c>
+      <c r="I72">
+        <v>-0.06032328013795138</v>
+      </c>
+      <c r="J72">
+        <v>-0.02766393529383534</v>
+      </c>
+      <c r="K72">
+        <v>0.08901702581313262</v>
+      </c>
+      <c r="L72">
+        <v>-0.1082457154216537</v>
+      </c>
+      <c r="M72">
+        <v>-0.02050783979661541</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2716913394746217</v>
+        <v>-0.2433735387638305</v>
       </c>
       <c r="C73">
-        <v>0.192477289029667</v>
+        <v>0.1544863657347685</v>
       </c>
       <c r="D73">
-        <v>0.1362814330160902</v>
+        <v>-0.1426080690115136</v>
       </c>
       <c r="E73">
-        <v>0.05532823842070406</v>
+        <v>0.08561716469804466</v>
       </c>
       <c r="F73">
-        <v>0.1514987813599759</v>
+        <v>0.4265989800111188</v>
       </c>
       <c r="G73">
-        <v>0.1241288394369217</v>
+        <v>-0.1007292541981576</v>
       </c>
       <c r="H73">
-        <v>0.1460109544543644</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2410716524093073</v>
+      </c>
+      <c r="I73">
+        <v>0.3210998180879899</v>
+      </c>
+      <c r="J73">
+        <v>0.09505165306184887</v>
+      </c>
+      <c r="K73">
+        <v>-0.176915630320337</v>
+      </c>
+      <c r="L73">
+        <v>-0.2698280743564821</v>
+      </c>
+      <c r="M73">
+        <v>-0.1367632300201648</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09345934536245228</v>
+        <v>-0.09417771387065435</v>
       </c>
       <c r="C74">
-        <v>0.04193789540681842</v>
+        <v>0.07148930018707347</v>
       </c>
       <c r="D74">
-        <v>0.005997429184995622</v>
+        <v>-0.006374580670089572</v>
       </c>
       <c r="E74">
-        <v>0.02314899172058829</v>
+        <v>-0.01610548000220322</v>
       </c>
       <c r="F74">
-        <v>-0.04916963556445698</v>
+        <v>0.04088225283419715</v>
       </c>
       <c r="G74">
-        <v>-0.1428935991497894</v>
+        <v>0.1453613131140757</v>
       </c>
       <c r="H74">
-        <v>0.06069585990335449</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.01812293539084999</v>
+      </c>
+      <c r="I74">
+        <v>0.001090950107438758</v>
+      </c>
+      <c r="J74">
+        <v>0.0145367115782273</v>
+      </c>
+      <c r="K74">
+        <v>0.05199425802573493</v>
+      </c>
+      <c r="L74">
+        <v>-0.03540593641090335</v>
+      </c>
+      <c r="M74">
+        <v>-0.0297014173849703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.0950807590497571</v>
+        <v>-0.09373861550795601</v>
       </c>
       <c r="C75">
-        <v>0.02415689103450555</v>
+        <v>0.05063915463290485</v>
       </c>
       <c r="D75">
-        <v>0.01181432503234698</v>
+        <v>-0.004837599615965476</v>
       </c>
       <c r="E75">
-        <v>0.02827430235803385</v>
+        <v>-0.01250523067919831</v>
       </c>
       <c r="F75">
-        <v>-0.06333781861075488</v>
+        <v>0.01991271701655956</v>
       </c>
       <c r="G75">
-        <v>-0.09990084726007505</v>
+        <v>0.09323361488489755</v>
       </c>
       <c r="H75">
-        <v>0.01190738093038374</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.0307238208900832</v>
+      </c>
+      <c r="I75">
+        <v>-0.08957426818957098</v>
+      </c>
+      <c r="J75">
+        <v>0.01900037732213968</v>
+      </c>
+      <c r="K75">
+        <v>0.03638195206721739</v>
+      </c>
+      <c r="L75">
+        <v>-0.02640794260449634</v>
+      </c>
+      <c r="M75">
+        <v>0.07615111965927174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.129535382215052</v>
+        <v>-0.08944133347225404</v>
       </c>
       <c r="C76">
-        <v>0.03591900604531205</v>
+        <v>0.06428538292897562</v>
       </c>
       <c r="D76">
-        <v>0.01002071962288851</v>
+        <v>-0.0007986092545130562</v>
       </c>
       <c r="E76">
-        <v>0.005172855878780347</v>
+        <v>0.004845013374857736</v>
       </c>
       <c r="F76">
-        <v>-0.1193394560412772</v>
+        <v>0.04943241886265979</v>
       </c>
       <c r="G76">
-        <v>-0.2204776760899609</v>
+        <v>0.1901730563759253</v>
       </c>
       <c r="H76">
-        <v>0.05510205268666204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.07353676818203367</v>
+      </c>
+      <c r="I76">
+        <v>-0.1158472716587345</v>
+      </c>
+      <c r="J76">
+        <v>0.024612307027718</v>
+      </c>
+      <c r="K76">
+        <v>0.05910669248536728</v>
+      </c>
+      <c r="L76">
+        <v>-0.04736839536412999</v>
+      </c>
+      <c r="M76">
+        <v>-0.08698220836791082</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.08887447871245346</v>
+        <v>-0.07530099263589043</v>
       </c>
       <c r="C77">
-        <v>0.003251727180835828</v>
+        <v>0.02138417377525255</v>
       </c>
       <c r="D77">
-        <v>0.02589980812298419</v>
+        <v>-0.01446367547625192</v>
       </c>
       <c r="E77">
-        <v>-0.3323297262706599</v>
+        <v>0.05884425358520624</v>
       </c>
       <c r="F77">
-        <v>-0.5794572792417905</v>
+        <v>-0.4187194767783368</v>
       </c>
       <c r="G77">
-        <v>0.5276414464548823</v>
+        <v>-0.1221125864500099</v>
       </c>
       <c r="H77">
-        <v>-0.1249975662205615</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.6744945284783045</v>
+      </c>
+      <c r="I77">
+        <v>-0.1691560394127618</v>
+      </c>
+      <c r="J77">
+        <v>0.3681602472593323</v>
+      </c>
+      <c r="K77">
+        <v>0.1028304287434946</v>
+      </c>
+      <c r="L77">
+        <v>-0.02349346587316012</v>
+      </c>
+      <c r="M77">
+        <v>-0.02923960894225981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1365995110742133</v>
+        <v>-0.1631414990401258</v>
       </c>
       <c r="C78">
-        <v>0.07018008247076454</v>
+        <v>0.1233076221044367</v>
       </c>
       <c r="D78">
-        <v>0.02875978578175034</v>
+        <v>0.1707760930264769</v>
       </c>
       <c r="E78">
-        <v>-0.1682995544721597</v>
+        <v>0.108112959059997</v>
       </c>
       <c r="F78">
-        <v>0.0555159908918415</v>
+        <v>-0.1294125376555245</v>
       </c>
       <c r="G78">
-        <v>0.008003632838667245</v>
+        <v>-0.3059879966262909</v>
       </c>
       <c r="H78">
-        <v>-0.09909711300747179</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.2388583500087611</v>
+      </c>
+      <c r="I78">
+        <v>-0.5706648024889563</v>
+      </c>
+      <c r="J78">
+        <v>0.04629598110957272</v>
+      </c>
+      <c r="K78">
+        <v>-0.4942679361864125</v>
+      </c>
+      <c r="L78">
+        <v>-0.1790649874933557</v>
+      </c>
+      <c r="M78">
+        <v>-0.07496340870066416</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1394676200044631</v>
+        <v>-0.1333185940316108</v>
       </c>
       <c r="C79">
-        <v>0.0553112676719931</v>
+        <v>0.07254914857804999</v>
       </c>
       <c r="D79">
-        <v>0.0240103980678811</v>
+        <v>-0.0002650281401138781</v>
       </c>
       <c r="E79">
-        <v>0.04123348092206518</v>
+        <v>0.00021132783241712</v>
       </c>
       <c r="F79">
-        <v>-0.09953966742890745</v>
+        <v>0.004357673551308668</v>
       </c>
       <c r="G79">
-        <v>-0.1379566473743591</v>
+        <v>0.1502817505156705</v>
       </c>
       <c r="H79">
-        <v>0.009174505713554262</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.04045037559339508</v>
+      </c>
+      <c r="I79">
+        <v>-0.07062461043317844</v>
+      </c>
+      <c r="J79">
+        <v>0.02601280037619688</v>
+      </c>
+      <c r="K79">
+        <v>0.106201325463302</v>
+      </c>
+      <c r="L79">
+        <v>-0.04653878560937079</v>
+      </c>
+      <c r="M79">
+        <v>0.008798441500831231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02453476125354394</v>
+        <v>-0.05577245497225287</v>
       </c>
       <c r="C80">
-        <v>0.001499308870382824</v>
+        <v>0.02668341513418353</v>
       </c>
       <c r="D80">
-        <v>-0.0002411703445287475</v>
+        <v>-0.06783405701644714</v>
       </c>
       <c r="E80">
-        <v>0.03669770284220724</v>
+        <v>0.008075239861560848</v>
       </c>
       <c r="F80">
-        <v>-0.006116999098860265</v>
+        <v>-0.01606764960811712</v>
       </c>
       <c r="G80">
-        <v>0.01465172430675085</v>
+        <v>-0.02779791587427924</v>
       </c>
       <c r="H80">
-        <v>0.07200786451152809</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.0834097159079418</v>
+      </c>
+      <c r="I80">
+        <v>0.05957511839128393</v>
+      </c>
+      <c r="J80">
+        <v>-0.131297319670081</v>
+      </c>
+      <c r="K80">
+        <v>-0.02601653150876998</v>
+      </c>
+      <c r="L80">
+        <v>0.07213717496132686</v>
+      </c>
+      <c r="M80">
+        <v>0.01209550692137802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1137928078087597</v>
+        <v>-0.1217032653718273</v>
       </c>
       <c r="C81">
-        <v>0.0596532841567631</v>
+        <v>0.05726088965728377</v>
       </c>
       <c r="D81">
-        <v>0.03141807418439565</v>
+        <v>-0.0006567053204008605</v>
       </c>
       <c r="E81">
-        <v>0.03479354635172288</v>
+        <v>0.002847283094645645</v>
       </c>
       <c r="F81">
-        <v>-0.05652955699789469</v>
+        <v>-0.01242789095299348</v>
       </c>
       <c r="G81">
-        <v>-0.09251650284294803</v>
+        <v>0.1276737876651275</v>
       </c>
       <c r="H81">
-        <v>0.01620676742124509</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.06579847397826287</v>
+      </c>
+      <c r="I81">
+        <v>-0.04354840466716791</v>
+      </c>
+      <c r="J81">
+        <v>0.03365182035818848</v>
+      </c>
+      <c r="K81">
+        <v>0.0509648896398186</v>
+      </c>
+      <c r="L81">
+        <v>-0.02908910571656359</v>
+      </c>
+      <c r="M81">
+        <v>0.1093793393176039</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1060073371119353</v>
+        <v>-0.1167083282333543</v>
       </c>
       <c r="C82">
-        <v>0.0314353759420441</v>
+        <v>0.05114402250980571</v>
       </c>
       <c r="D82">
-        <v>0.05114484258808957</v>
+        <v>-0.02447747605702298</v>
       </c>
       <c r="E82">
-        <v>0.07552968391974606</v>
+        <v>-0.007226861191737781</v>
       </c>
       <c r="F82">
-        <v>-0.1479735538684663</v>
+        <v>0.04038615193354245</v>
       </c>
       <c r="G82">
-        <v>-0.2215897766824341</v>
+        <v>0.2200099252687711</v>
       </c>
       <c r="H82">
-        <v>-0.01005936392442086</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.07945994647391931</v>
+      </c>
+      <c r="I82">
+        <v>-0.06156981870911941</v>
+      </c>
+      <c r="J82">
+        <v>0.07656170131912884</v>
+      </c>
+      <c r="K82">
+        <v>0.08532842768931043</v>
+      </c>
+      <c r="L82">
+        <v>0.04632263304939961</v>
+      </c>
+      <c r="M82">
+        <v>0.03876210583810554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05572094433506011</v>
+        <v>-0.07503898854915719</v>
       </c>
       <c r="C83">
-        <v>0.04573373203121037</v>
+        <v>0.06976131866496456</v>
       </c>
       <c r="D83">
-        <v>0.03495289104208475</v>
+        <v>-0.01842214735459256</v>
       </c>
       <c r="E83">
-        <v>0.01786551000078357</v>
+        <v>0.007668098114641566</v>
       </c>
       <c r="F83">
-        <v>0.03593742759591317</v>
+        <v>-0.008613413781945507</v>
       </c>
       <c r="G83">
-        <v>0.05923544530710074</v>
+        <v>0.03809139875719141</v>
       </c>
       <c r="H83">
-        <v>-0.08134110789020728</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.0176162908384886</v>
+      </c>
+      <c r="I83">
+        <v>0.06610134231450798</v>
+      </c>
+      <c r="J83">
+        <v>-0.04330146038035972</v>
+      </c>
+      <c r="K83">
+        <v>-0.03313570299519678</v>
+      </c>
+      <c r="L83">
+        <v>0.1562581920845205</v>
+      </c>
+      <c r="M83">
+        <v>-0.04710953408449844</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.04613717163790837</v>
+        <v>-0.04782257751063207</v>
       </c>
       <c r="C84">
-        <v>0.05289209484120558</v>
+        <v>-0.02127710987315318</v>
       </c>
       <c r="D84">
-        <v>-0.05834554318871909</v>
+        <v>-0.006062670814975433</v>
       </c>
       <c r="E84">
-        <v>0.02149423193421098</v>
+        <v>-0.0212318414384795</v>
       </c>
       <c r="F84">
-        <v>0.08810641710539531</v>
+        <v>-0.001157047688964082</v>
       </c>
       <c r="G84">
-        <v>-0.1010517610423416</v>
+        <v>-0.2229082975098625</v>
       </c>
       <c r="H84">
-        <v>-0.0152085326094788</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.1777396624825913</v>
+      </c>
+      <c r="I84">
+        <v>0.1266099737386053</v>
+      </c>
+      <c r="J84">
+        <v>0.09942575325294907</v>
+      </c>
+      <c r="K84">
+        <v>0.003048969620291545</v>
+      </c>
+      <c r="L84">
+        <v>0.1365580879327019</v>
+      </c>
+      <c r="M84">
+        <v>-0.5730061351961635</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08227652929002446</v>
+        <v>-0.1079156886005785</v>
       </c>
       <c r="C85">
-        <v>0.047367919671275</v>
+        <v>0.04965934995811886</v>
       </c>
       <c r="D85">
-        <v>0.04855629920210761</v>
+        <v>-0.008685968303797167</v>
       </c>
       <c r="E85">
-        <v>0.01928740083774662</v>
+        <v>0.02735357686920625</v>
       </c>
       <c r="F85">
-        <v>-0.1225521654493025</v>
+        <v>0.004136129843279575</v>
       </c>
       <c r="G85">
-        <v>-0.1532219033384004</v>
+        <v>0.1633785915205953</v>
       </c>
       <c r="H85">
-        <v>0.0519107712845784</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.05298946421294274</v>
+      </c>
+      <c r="I85">
+        <v>-0.06759638115501014</v>
+      </c>
+      <c r="J85">
+        <v>0.03045443875599038</v>
+      </c>
+      <c r="K85">
+        <v>0.1000494824809155</v>
+      </c>
+      <c r="L85">
+        <v>-0.0719073368461227</v>
+      </c>
+      <c r="M85">
+        <v>0.03245091207743166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03964744205724815</v>
+        <v>-0.07383235153225884</v>
       </c>
       <c r="C86">
-        <v>0.03740516644050737</v>
+        <v>0.0163590945507961</v>
       </c>
       <c r="D86">
-        <v>-0.003835621197602019</v>
+        <v>0.0132689460381721</v>
       </c>
       <c r="E86">
-        <v>-0.05400038752887967</v>
+        <v>0.1011485420847891</v>
       </c>
       <c r="F86">
-        <v>-0.007939205221658464</v>
+        <v>-0.04648648862864963</v>
       </c>
       <c r="G86">
-        <v>0.07954885888826604</v>
+        <v>-0.4365848272770254</v>
       </c>
       <c r="H86">
-        <v>0.1195105112082466</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.4076532642823583</v>
+      </c>
+      <c r="I86">
+        <v>0.145792539610923</v>
+      </c>
+      <c r="J86">
+        <v>0.3880033328971678</v>
+      </c>
+      <c r="K86">
+        <v>0.4264814279426305</v>
+      </c>
+      <c r="L86">
+        <v>-0.1848700153581667</v>
+      </c>
+      <c r="M86">
+        <v>-0.01240169184085739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.08669275792372456</v>
+        <v>-0.1128254552325571</v>
       </c>
       <c r="C87">
-        <v>0.05727130004411473</v>
+        <v>0.0675584131173456</v>
       </c>
       <c r="D87">
-        <v>0.02148914905981334</v>
+        <v>0.03222256836398755</v>
       </c>
       <c r="E87">
-        <v>-0.145759032470764</v>
+        <v>0.04030487935350362</v>
       </c>
       <c r="F87">
-        <v>-0.1159976972149549</v>
+        <v>-0.1485145665281203</v>
       </c>
       <c r="G87">
-        <v>0.1226504400319518</v>
+        <v>-0.08580732498119327</v>
       </c>
       <c r="H87">
-        <v>-0.05938311171957125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.1690830333410591</v>
+      </c>
+      <c r="I87">
+        <v>0.02950452134074669</v>
+      </c>
+      <c r="J87">
+        <v>0.07825190619324091</v>
+      </c>
+      <c r="K87">
+        <v>0.05685383837174866</v>
+      </c>
+      <c r="L87">
+        <v>0.1249751429141196</v>
+      </c>
+      <c r="M87">
+        <v>0.03322810794536311</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04938676786371057</v>
+        <v>-0.05653959853521958</v>
       </c>
       <c r="C88">
-        <v>0.03713499798652069</v>
+        <v>0.05367737627348783</v>
       </c>
       <c r="D88">
-        <v>0.02482588852387281</v>
+        <v>-0.02730448171289011</v>
       </c>
       <c r="E88">
-        <v>-0.009213782649177471</v>
+        <v>0.01346507151712841</v>
       </c>
       <c r="F88">
-        <v>-0.005505884254352587</v>
+        <v>-0.02788972894740905</v>
       </c>
       <c r="G88">
-        <v>0.01892229370823853</v>
+        <v>0.03156126652495354</v>
       </c>
       <c r="H88">
-        <v>-0.02453898911786953</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.01864238601542594</v>
+      </c>
+      <c r="I88">
+        <v>0.04490842488518632</v>
+      </c>
+      <c r="J88">
+        <v>-0.01392768012130393</v>
+      </c>
+      <c r="K88">
+        <v>-0.01412900789383103</v>
+      </c>
+      <c r="L88">
+        <v>0.01569481459124783</v>
+      </c>
+      <c r="M88">
+        <v>0.02366372072133148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1788156158709547</v>
+        <v>-0.2155026170637653</v>
       </c>
       <c r="C89">
-        <v>-0.3229976648971656</v>
+        <v>-0.3580815473694634</v>
       </c>
       <c r="D89">
-        <v>0.05459136244497008</v>
+        <v>0.03975489746095454</v>
       </c>
       <c r="E89">
-        <v>-0.07883017199679436</v>
+        <v>0.08197630020381103</v>
       </c>
       <c r="F89">
-        <v>0.0480043618196286</v>
+        <v>-0.0100561018027955</v>
       </c>
       <c r="G89">
-        <v>0.01758715436526297</v>
+        <v>0.0009180215098973668</v>
       </c>
       <c r="H89">
-        <v>0.007511323213520309</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.03032862059873929</v>
+      </c>
+      <c r="I89">
+        <v>0.03522881800962373</v>
+      </c>
+      <c r="J89">
+        <v>0.002033728172465889</v>
+      </c>
+      <c r="K89">
+        <v>-0.07846091107256734</v>
+      </c>
+      <c r="L89">
+        <v>0.01266245405766194</v>
+      </c>
+      <c r="M89">
+        <v>0.09946555448252332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1281594175730419</v>
+        <v>-0.1479752389281435</v>
       </c>
       <c r="C90">
-        <v>-0.2792880843755217</v>
+        <v>-0.2692137983418177</v>
       </c>
       <c r="D90">
-        <v>-0.00946327016633652</v>
+        <v>-0.01414547115335959</v>
       </c>
       <c r="E90">
-        <v>-0.04332697877900286</v>
+        <v>0.02175140972655957</v>
       </c>
       <c r="F90">
-        <v>-0.004238161458725346</v>
+        <v>-0.03199478286825381</v>
       </c>
       <c r="G90">
-        <v>0.05884504153762089</v>
+        <v>-0.001983684647729025</v>
       </c>
       <c r="H90">
-        <v>-0.04065976677905681</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.02177741429838256</v>
+      </c>
+      <c r="I90">
+        <v>0.05459996020119381</v>
+      </c>
+      <c r="J90">
+        <v>-0.01364861546311657</v>
+      </c>
+      <c r="K90">
+        <v>-0.02994044104116683</v>
+      </c>
+      <c r="L90">
+        <v>-0.00899416408442927</v>
+      </c>
+      <c r="M90">
+        <v>-0.0546454696607491</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08301048981249694</v>
+        <v>-0.07769903273463702</v>
       </c>
       <c r="C91">
-        <v>0.0247186457810656</v>
+        <v>0.05318204702283219</v>
       </c>
       <c r="D91">
-        <v>0.008703438015215916</v>
+        <v>0.008376146355773204</v>
       </c>
       <c r="E91">
-        <v>-0.01904136948560585</v>
+        <v>0.0067664770914134</v>
       </c>
       <c r="F91">
-        <v>-0.03213173086684864</v>
+        <v>0.0148562269198313</v>
       </c>
       <c r="G91">
-        <v>-0.1051392371408346</v>
+        <v>0.07678910469937524</v>
       </c>
       <c r="H91">
-        <v>0.01772299795053881</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.03164802906025276</v>
+      </c>
+      <c r="I91">
+        <v>-0.04912029626492527</v>
+      </c>
+      <c r="J91">
+        <v>0.03054468701342183</v>
+      </c>
+      <c r="K91">
+        <v>0.01433868176605528</v>
+      </c>
+      <c r="L91">
+        <v>-0.03063392136008634</v>
+      </c>
+      <c r="M91">
+        <v>-0.005821272635839431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1527423900477002</v>
+        <v>-0.16507446100781</v>
       </c>
       <c r="C92">
-        <v>-0.2981098044445505</v>
+        <v>-0.3021048971900502</v>
       </c>
       <c r="D92">
-        <v>0.03041392505022309</v>
+        <v>0.02950336940954475</v>
       </c>
       <c r="E92">
-        <v>-0.02123996921281457</v>
+        <v>0.0450456006792791</v>
       </c>
       <c r="F92">
-        <v>0.07991196112214979</v>
+        <v>-0.02384918026816004</v>
       </c>
       <c r="G92">
-        <v>-0.02497941885604793</v>
+        <v>0.02801622302285968</v>
       </c>
       <c r="H92">
-        <v>0.006133270811597884</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.02048352505558545</v>
+      </c>
+      <c r="I92">
+        <v>0.004114711056761175</v>
+      </c>
+      <c r="J92">
+        <v>-0.01492346478595348</v>
+      </c>
+      <c r="K92">
+        <v>-0.03875804002325599</v>
+      </c>
+      <c r="L92">
+        <v>0.001223772163142829</v>
+      </c>
+      <c r="M92">
+        <v>0.08396093784959194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1461288656141306</v>
+        <v>-0.1644585801095897</v>
       </c>
       <c r="C93">
-        <v>-0.2512903887668514</v>
+        <v>-0.286163038222949</v>
       </c>
       <c r="D93">
-        <v>0.01109276299200204</v>
+        <v>-0.03137770337588375</v>
       </c>
       <c r="E93">
-        <v>-0.01596649555771733</v>
+        <v>0.009509116951474626</v>
       </c>
       <c r="F93">
-        <v>0.02779013757101054</v>
+        <v>-0.0128373782834064</v>
       </c>
       <c r="G93">
-        <v>0.0279130984350321</v>
+        <v>-0.009380854787057046</v>
       </c>
       <c r="H93">
-        <v>-0.01502144509663014</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.01754968947415883</v>
+      </c>
+      <c r="I93">
+        <v>0.0346628824948819</v>
+      </c>
+      <c r="J93">
+        <v>-0.0141182212614048</v>
+      </c>
+      <c r="K93">
+        <v>0.0198741331789767</v>
+      </c>
+      <c r="L93">
+        <v>0.01871645833126358</v>
+      </c>
+      <c r="M93">
+        <v>-0.04322954218082228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08536956003953447</v>
+        <v>-0.108071967217186</v>
       </c>
       <c r="C94">
-        <v>0.06254793029540756</v>
+        <v>0.07491112212792461</v>
       </c>
       <c r="D94">
-        <v>0.00691749020789079</v>
+        <v>0.01963538982319235</v>
       </c>
       <c r="E94">
-        <v>-0.0007883573868710167</v>
+        <v>0.01296134721105699</v>
       </c>
       <c r="F94">
-        <v>-0.05221714301062205</v>
+        <v>0.03983471359398313</v>
       </c>
       <c r="G94">
-        <v>-0.1654047238828029</v>
+        <v>0.1148629919788329</v>
       </c>
       <c r="H94">
-        <v>0.04753630336739132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.04979798512321873</v>
+      </c>
+      <c r="I94">
+        <v>-0.05629756051352811</v>
+      </c>
+      <c r="J94">
+        <v>-0.007118874014268643</v>
+      </c>
+      <c r="K94">
+        <v>0.01968867289545231</v>
+      </c>
+      <c r="L94">
+        <v>-0.05635853549469391</v>
+      </c>
+      <c r="M94">
+        <v>0.02070424692947998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.09423166441372702</v>
+        <v>-0.1250034461723173</v>
       </c>
       <c r="C95">
-        <v>0.07192792199757427</v>
+        <v>0.07030561502360572</v>
       </c>
       <c r="D95">
-        <v>0.0657036131670533</v>
+        <v>0.0162181146149378</v>
       </c>
       <c r="E95">
-        <v>-0.02523524235196619</v>
+        <v>0.06098453981108898</v>
       </c>
       <c r="F95">
-        <v>0.05903797859761557</v>
+        <v>-0.07410047595443336</v>
       </c>
       <c r="G95">
-        <v>0.003845793397184822</v>
+        <v>-0.1994914084386013</v>
       </c>
       <c r="H95">
-        <v>0.01020386317106066</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.05394166622309871</v>
+      </c>
+      <c r="I95">
+        <v>0.1915652500878725</v>
+      </c>
+      <c r="J95">
+        <v>-0.06765838287226966</v>
+      </c>
+      <c r="K95">
+        <v>0.06466360947867136</v>
+      </c>
+      <c r="L95">
+        <v>-0.01850490829184023</v>
+      </c>
+      <c r="M95">
+        <v>0.4917803962840846</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2626326623881585</v>
+        <v>-0.1613605513442024</v>
       </c>
       <c r="C97">
-        <v>0.07979294304910069</v>
+        <v>-0.000732448839401278</v>
       </c>
       <c r="D97">
-        <v>-0.8694211085755016</v>
+        <v>0.09712100531202295</v>
       </c>
       <c r="E97">
-        <v>0.155944927887459</v>
+        <v>-0.930657928141908</v>
       </c>
       <c r="F97">
-        <v>0.04258478219271815</v>
+        <v>-0.04346904818202511</v>
       </c>
       <c r="G97">
-        <v>0.1382845745004005</v>
+        <v>-0.1196107174074376</v>
       </c>
       <c r="H97">
-        <v>0.003138939739601657</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.02387217800554651</v>
+      </c>
+      <c r="I97">
+        <v>0.0367467256744915</v>
+      </c>
+      <c r="J97">
+        <v>0.06208088762267284</v>
+      </c>
+      <c r="K97">
+        <v>-0.04794824281662528</v>
+      </c>
+      <c r="L97">
+        <v>-0.005831291807205413</v>
+      </c>
+      <c r="M97">
+        <v>0.04846712829295546</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2777119070470332</v>
+        <v>-0.2671099048901775</v>
       </c>
       <c r="C98">
-        <v>0.1154688281647955</v>
+        <v>0.1136848382273871</v>
       </c>
       <c r="D98">
-        <v>0.1908151902454261</v>
+        <v>-0.00162846934679536</v>
       </c>
       <c r="E98">
-        <v>0.3064456251123866</v>
+        <v>0.02074610552381403</v>
       </c>
       <c r="F98">
-        <v>0.4389529225901435</v>
+        <v>0.4234448389539408</v>
       </c>
       <c r="G98">
-        <v>0.2513407939603101</v>
+        <v>-0.2295490207658459</v>
       </c>
       <c r="H98">
-        <v>-0.3261646937634016</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.1334874397980011</v>
+      </c>
+      <c r="I98">
+        <v>-0.2407253860415143</v>
+      </c>
+      <c r="J98">
+        <v>-0.002507317929899898</v>
+      </c>
+      <c r="K98">
+        <v>-0.005968559753620008</v>
+      </c>
+      <c r="L98">
+        <v>0.6295942842468479</v>
+      </c>
+      <c r="M98">
+        <v>0.05073256599208995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.05020243727271367</v>
+        <v>-0.06570164238796422</v>
       </c>
       <c r="C99">
-        <v>0.05470704592088544</v>
+        <v>0.05824528972048633</v>
       </c>
       <c r="D99">
-        <v>0.06312432887984123</v>
+        <v>0.008397436001141305</v>
       </c>
       <c r="E99">
-        <v>-0.005586762837900753</v>
+        <v>0.0489647962739401</v>
       </c>
       <c r="F99">
-        <v>-0.008092270379491225</v>
+        <v>-0.001074022652311276</v>
       </c>
       <c r="G99">
-        <v>0.04500707252471125</v>
+        <v>0.01320689257072829</v>
       </c>
       <c r="H99">
-        <v>-0.08457951930569954</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.01728475610062377</v>
+      </c>
+      <c r="I99">
+        <v>-0.03573952020731852</v>
+      </c>
+      <c r="J99">
+        <v>0.06491917500284519</v>
+      </c>
+      <c r="K99">
+        <v>-0.01989294423856293</v>
+      </c>
+      <c r="L99">
+        <v>0.01076150692453082</v>
+      </c>
+      <c r="M99">
+        <v>0.111882842078253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.05198660327778928</v>
+        <v>-0.04409013601633935</v>
       </c>
       <c r="C101">
-        <v>0.01932684970608144</v>
+        <v>0.02874732703656798</v>
       </c>
       <c r="D101">
-        <v>0.009385223654526821</v>
+        <v>-0.004002181209154277</v>
       </c>
       <c r="E101">
-        <v>-0.02404157419631678</v>
+        <v>0.01997748180267911</v>
       </c>
       <c r="F101">
-        <v>0.009070011711883015</v>
+        <v>-0.05874921636358264</v>
       </c>
       <c r="G101">
-        <v>-0.005770435078309141</v>
+        <v>0.03283578125650917</v>
       </c>
       <c r="H101">
-        <v>0.0228980003558455</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.04906573721520108</v>
+      </c>
+      <c r="I101">
+        <v>0.0008436630193612079</v>
+      </c>
+      <c r="J101">
+        <v>-0.03357544710989814</v>
+      </c>
+      <c r="K101">
+        <v>0.04103811913593675</v>
+      </c>
+      <c r="L101">
+        <v>0.03439813518735844</v>
+      </c>
+      <c r="M101">
+        <v>-0.009722097194931388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
